--- a/legendre_out/CSV/analytically/a1/a0/rates.xlsx
+++ b/legendre_out/CSV/analytically/a1/a0/rates.xlsx
@@ -562,7 +562,7 @@
         <v>0.07000000000000001</v>
       </c>
       <c r="B25" t="n">
-        <v>7.836014932423063e-282</v>
+        <v>8.5713517699526e-282</v>
       </c>
     </row>
     <row r="26">
@@ -570,7 +570,7 @@
         <v>0.08</v>
       </c>
       <c r="B26" t="n">
-        <v>6.195197590756835e-246</v>
+        <v>6.749682872505528e-246</v>
       </c>
     </row>
     <row r="27">
@@ -578,7 +578,7 @@
         <v>0.09</v>
       </c>
       <c r="B27" t="n">
-        <v>5.131163636046932e-218</v>
+        <v>5.568370684887195e-218</v>
       </c>
     </row>
     <row r="28">
@@ -586,7 +586,7 @@
         <v>0.1</v>
       </c>
       <c r="B28" t="n">
-        <v>1.103117224204888e-195</v>
+        <v>1.192639962521603e-195</v>
       </c>
     </row>
     <row r="29">
@@ -594,7 +594,7 @@
         <v>0.11</v>
       </c>
       <c r="B29" t="n">
-        <v>2.053913070510852e-177</v>
+        <v>2.212972010281636e-177</v>
       </c>
     </row>
     <row r="30">
@@ -602,7 +602,7 @@
         <v>0.12</v>
       </c>
       <c r="B30" t="n">
-        <v>3.432373521591073e-162</v>
+        <v>3.68669972692718e-162</v>
       </c>
     </row>
     <row r="31">
@@ -610,7 +610,7 @@
         <v>0.13</v>
       </c>
       <c r="B31" t="n">
-        <v>2.598388829093767e-149</v>
+        <v>2.783153935197174e-149</v>
       </c>
     </row>
     <row r="32">
@@ -618,7 +618,7 @@
         <v>0.14</v>
       </c>
       <c r="B32" t="n">
-        <v>2.832102053866467e-138</v>
+        <v>3.025953430723202e-138</v>
       </c>
     </row>
     <row r="33">
@@ -626,7 +626,7 @@
         <v>0.15</v>
       </c>
       <c r="B33" t="n">
-        <v>1.037793790185752e-128</v>
+        <v>1.106374162512072e-128</v>
       </c>
     </row>
     <row r="34">
@@ -634,7 +634,7 @@
         <v>0.16</v>
       </c>
       <c r="B34" t="n">
-        <v>2.41522206730886e-120</v>
+        <v>2.569741815429625e-120</v>
       </c>
     </row>
     <row r="35">
@@ -642,7 +642,7 @@
         <v>0.18</v>
       </c>
       <c r="B35" t="n">
-        <v>2.10519986303343e-106</v>
+        <v>2.232391073194228e-106</v>
       </c>
     </row>
     <row r="36">
@@ -650,7 +650,7 @@
         <v>0.2</v>
       </c>
       <c r="B36" t="n">
-        <v>2.953721187659234e-95</v>
+        <v>3.123701087772699e-95</v>
       </c>
     </row>
     <row r="37">
@@ -658,7 +658,7 @@
         <v>0.25</v>
       </c>
       <c r="B37" t="n">
-        <v>3.295869954952018e-75</v>
+        <v>3.468596931366371e-75</v>
       </c>
     </row>
     <row r="38">
@@ -666,7 +666,7 @@
         <v>0.3</v>
       </c>
       <c r="B38" t="n">
-        <v>7.321385099606672e-62</v>
+        <v>7.680618529473482e-62</v>
       </c>
     </row>
     <row r="39">
@@ -674,7 +674,7 @@
         <v>0.35</v>
       </c>
       <c r="B39" t="n">
-        <v>2.42210603835847e-52</v>
+        <v>2.535479701696729e-52</v>
       </c>
     </row>
     <row r="40">
@@ -682,7 +682,7 @@
         <v>0.4</v>
       </c>
       <c r="B40" t="n">
-        <v>3.26340410028505e-45</v>
+        <v>3.411302384872521e-45</v>
       </c>
     </row>
     <row r="41">
@@ -690,7 +690,7 @@
         <v>0.45</v>
       </c>
       <c r="B41" t="n">
-        <v>1.125236950046792e-39</v>
+        <v>1.175289418479819e-39</v>
       </c>
     </row>
     <row r="42">
@@ -698,7 +698,7 @@
         <v>0.5</v>
       </c>
       <c r="B42" t="n">
-        <v>2.990754971221933e-35</v>
+        <v>3.123101294094335e-35</v>
       </c>
     </row>
     <row r="43">
@@ -706,7 +706,7 @@
         <v>0.6</v>
       </c>
       <c r="B43" t="n">
-        <v>1.266744979283958e-28</v>
+        <v>1.324436218184918e-28</v>
       </c>
     </row>
     <row r="44">
@@ -714,7 +714,7 @@
         <v>0.7</v>
       </c>
       <c r="B44" t="n">
-        <v>6.75221684469929e-24</v>
+        <v>7.082564200245714e-24</v>
       </c>
     </row>
     <row r="45">
@@ -722,7 +722,7 @@
         <v>0.8</v>
       </c>
       <c r="B45" t="n">
-        <v>2.355009401131164e-20</v>
+        <v>2.481885262600546e-20</v>
       </c>
     </row>
     <row r="46">
@@ -730,7 +730,7 @@
         <v>0.9</v>
       </c>
       <c r="B46" t="n">
-        <v>1.339116176552971e-17</v>
+        <v>1.41913177672256e-17</v>
       </c>
     </row>
     <row r="47">
@@ -738,7 +738,7 @@
         <v>1</v>
       </c>
       <c r="B47" t="n">
-        <v>2.143208034277235e-15</v>
+        <v>2.284577994449412e-15</v>
       </c>
     </row>
     <row r="48">
@@ -746,7 +746,7 @@
         <v>1.25</v>
       </c>
       <c r="B48" t="n">
-        <v>2.005337563065546e-11</v>
+        <v>2.166207592638254e-11</v>
       </c>
     </row>
     <row r="49">
@@ -754,7 +754,7 @@
         <v>1.5</v>
       </c>
       <c r="B49" t="n">
-        <v>9.047879873608931e-09</v>
+        <v>9.863117718302038e-09</v>
       </c>
     </row>
     <row r="50">
@@ -762,7 +762,7 @@
         <v>1.75</v>
       </c>
       <c r="B50" t="n">
-        <v>7.270732149712759e-07</v>
+        <v>7.960701827622952e-07</v>
       </c>
     </row>
     <row r="51">
@@ -770,7 +770,7 @@
         <v>2</v>
       </c>
       <c r="B51" t="n">
-        <v>1.995739398994782e-05</v>
+        <v>2.186234223969194e-05</v>
       </c>
     </row>
     <row r="52">
@@ -778,7 +778,7 @@
         <v>2.5</v>
       </c>
       <c r="B52" t="n">
-        <v>0.002173956349422007</v>
+        <v>0.002368120190453732</v>
       </c>
     </row>
     <row r="53">
@@ -786,7 +786,7 @@
         <v>3</v>
       </c>
       <c r="B53" t="n">
-        <v>0.05185718587661579</v>
+        <v>0.05602800799396952</v>
       </c>
     </row>
     <row r="54">
@@ -794,7 +794,7 @@
         <v>3.5</v>
       </c>
       <c r="B54" t="n">
-        <v>0.510287542386347</v>
+        <v>0.5472999754159925</v>
       </c>
     </row>
     <row r="55">
@@ -802,7 +802,7 @@
         <v>4</v>
       </c>
       <c r="B55" t="n">
-        <v>2.854048426898099</v>
+        <v>3.043507021306136</v>
       </c>
     </row>
     <row r="56">
@@ -810,7 +810,7 @@
         <v>5</v>
       </c>
       <c r="B56" t="n">
-        <v>31.63177028378657</v>
+        <v>33.47712841461133</v>
       </c>
     </row>
     <row r="57">
@@ -818,7 +818,7 @@
         <v>6</v>
       </c>
       <c r="B57" t="n">
-        <v>277.6387612830674</v>
+        <v>390.2879595742725</v>
       </c>
     </row>
     <row r="58">
@@ -826,7 +826,7 @@
         <v>7</v>
       </c>
       <c r="B58" t="n">
-        <v>867.6838658523084</v>
+        <v>1162.456737040521</v>
       </c>
     </row>
     <row r="59">
@@ -834,7 +834,7 @@
         <v>8</v>
       </c>
       <c r="B59" t="n">
-        <v>1981.090153418288</v>
+        <v>2705.517333759648</v>
       </c>
     </row>
     <row r="60">
@@ -842,7 +842,7 @@
         <v>9</v>
       </c>
       <c r="B60" t="n">
-        <v>3740.357860089819</v>
+        <v>5123.893384130305</v>
       </c>
     </row>
     <row r="61">
@@ -850,7 +850,7 @@
         <v>10</v>
       </c>
       <c r="B61" t="n">
-        <v>6147.229294103677</v>
+        <v>8400.93511832394</v>
       </c>
     </row>
   </sheetData>
